--- a/Data/Subject_DIGIT_PRE session-1 _1/data.xlsx
+++ b/Data/Subject_DIGIT_PRE session-1 _1/data.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>10.68482112884521</v>
+        <v>1.495607614517212</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -511,28 +511,28 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>"איפה שמתי את המפתחות?"</t>
+          <t>"אני רוצה לצאת לאימון."</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2390.680272108844</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>recordNum2_sentence101_d9_7_h16_21_13.wav</t>
+          <t>recordNum9_sentence81_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.4687600135803223</v>
+        <v>0.4214241504669189</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -599,19 +599,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"מה בא לי לאכול?"</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2393.333333333334</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>recordNum18_sentence117_d9_7_h16_22_27.wav</t>
+          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -670,15 +670,15 @@
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.4148197174072266</v>
+        <v>0.5102081298828125</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -687,19 +687,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני רוצה לצאת לאימון."</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1708.004535147392</v>
+        <v>2569.319727891156</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
+          <t>recordNum12_sentence111_d9_7_h16_22_0.wav</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.4761390686035156</v>
+        <v>0.2284371852874756</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -775,28 +775,28 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"מה יש לי לעשות היום?"</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3772.018140589569</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>recordNum1_sentence69_d9_7_h16_21_8.wav</t>
+          <t>recordNum8_sentence86_d9_7_h16_21_42.wav</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.4697868824005127</v>
+        <v>0.4059388637542725</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>"מה אני אלבש היום?"</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1715.986394557823</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>recordNum17_sentence92_d9_7_h16_22_22.wav</t>
+          <t>recordNum8_sentence107_d9_7_h16_21_42.wav</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -938,11 +938,11 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.5192530155181885</v>
+        <v>0.481684684753418</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -951,28 +951,28 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>"מה בא לי לאכול?"</t>
+          <t>"אני צריכה לעשות טלפון."</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1889.319727891156</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
+          <t>recordNum3_sentence98_d9_7_h16_21_19.wav</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1026,11 +1026,11 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8522739410400391</v>
+        <v>1.0393385887146</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1039,28 +1039,28 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>"אני צריכה לשלוח הודעה."</t>
+          <t>"אני צריכה לעשות קניות."</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2569.319727891156</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>recordNum12_sentence99_d9_7_h16_22_0.wav</t>
+          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2.901949405670166</v>
+        <v>2.68398118019104</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1125,24 +1125,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>"אני צריכה לשלוח הודעה."</t>
+          <t>"אני צריכה לעשות קניות."</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2569.319727891156</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>recordNum12_sentence99_d9_7_h16_22_0.wav</t>
+          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.4159407615661621</v>
+        <v>2.197278022766113</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1209,28 +1209,28 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>"אני צריכה לבדוק את המייל."</t>
+          <t>"איפה שמתי את המפתחות?"</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>2235.986394557823</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>recordNum5_sentence104_d9_7_h16_21_28.wav</t>
+          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3.273776531219482</v>
+        <v>5.062350988388062</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1295,24 +1295,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>"אני צריכה לבדוק את המייל."</t>
+          <t>"איפה שמתי את המפתחות?"</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2235.986394557823</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>recordNum5_sentence104_d9_7_h16_21_28.wav</t>
+          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.2885501384735107</v>
+        <v>0.537102222442627</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1379,19 +1379,19 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"אני רוצה להסתפר."</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2393.333333333334</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>recordNum18_sentence117_d9_7_h16_22_27.wav</t>
+          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1450,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.2439072132110596</v>
+        <v>0.4368245601654053</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1467,28 +1467,28 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1708.004535147392</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
+          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2.583930015563965</v>
+        <v>0.4686694145202637</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1555,28 +1555,28 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"אני רוצה לקרוא ספר."</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>3772.018140589569</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>recordNum1_sentence69_d9_7_h16_21_8.wav</t>
+          <t>recordNum11_sentence110_d9_7_h16_21_54.wav</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.3628547191619873</v>
+        <v>0.4949328899383545</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1643,28 +1643,28 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>"מה בא לי לאכול?"</t>
+          <t>"מה יש לי לעשות היום?"</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1889.319727891156</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
+          <t>recordNum13_sentence112_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1714,36 +1714,36 @@
         <v>1</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.1920859813690186</v>
+        <v>0.5545868873596191</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>"איפה שמתי את המפתחות?"</t>
+          <t>"אני חסרת ערך."</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2225.351473922903</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
+          <t>recordNum30_sentence129_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1790,17 +1790,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1808,7 +1810,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2.767845153808594</v>
+        <v>0.6152884960174561</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1817,24 +1819,28 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>"איפה שמתי את המפתחות?"</t>
+          <t>"מה אני אלבש היום?"</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>2225.351473922903</v>
+        <v>1718.684807256236</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
+          <t>recordNum4_sentence103_d9_7_h16_21_23.wav</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>72</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
+        <v>103</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1892,7 +1898,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.2674624919891357</v>
+        <v>0.3777318000793457</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1901,19 +1907,19 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>"אני כל כך חלשה."</t>
+          <t>"אני מאוכזבת מהבחירות שלי."</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3414.671201814059</v>
+        <v>2220</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>recordNum24_sentence123_d9_7_h16_23_3.wav</t>
+          <t>recordNum25_sentence124_d9_7_h16_23_7.wav</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1922,7 +1928,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1976,11 +1982,11 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.2423574924468994</v>
+        <v>0.4390819072723389</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1989,28 +1995,28 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>"קשה לי להתרכז."</t>
+          <t>"הלוואי שהייתי מישהו אחר."</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>3257.34693877551</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>recordNum36_sentence135_d9_7_h16_24_9.wav</t>
+          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2068,7 +2074,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.2704000473022461</v>
+        <v>0.4074301719665527</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2077,19 +2083,19 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>"העתיד שלי בזבל."</t>
+          <t>"הלוואי שהייתי יכולה להיעלם."</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>2052.018140589569</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>recordNum26_sentence26_d9_7_h16_23_12.wav</t>
+          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2098,7 +2104,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2156,7 +2162,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.5080235004425049</v>
+        <v>0.3434810638427734</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2165,19 +2171,19 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>"אני שונאת את עצמי."</t>
+          <t>"אני חסרת משמעות."</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>3252.018140589569</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>recordNum29_sentence128_d9_7_h16_23_30.wav</t>
+          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2186,7 +2192,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2236,15 +2242,15 @@
         <v>1</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.3830380439758301</v>
+        <v>0.4110782146453857</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2253,19 +2259,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>"אני רוצה לקרוא ספר."</t>
+          <t>"מה אני אלבש היום?"</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1555.986394557823</v>
+        <v>1715.986394557823</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>recordNum11_sentence110_d9_7_h16_21_54.wav</t>
+          <t>recordNum17_sentence92_d9_7_h16_22_22.wav</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2316,13 +2322,13 @@
         </is>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2330,7 +2336,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1.571241855621338</v>
+        <v>2.150588035583496</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2356,7 +2362,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2410,11 +2416,11 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.2593050003051758</v>
+        <v>0.3185596466064453</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2423,28 +2429,28 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>"אני חסרת ערך."</t>
+          <t>"נמאס לי לחשוב על זה."</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>2238.684807256236</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>recordNum31_sentence16_d9_7_h16_23_41.wav</t>
+          <t>recordNum39_sentence138_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2494,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2502,37 +2508,37 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.3390934467315674</v>
+        <v>0.2685685157775879</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>"מה אני אלבש היום?"</t>
+          <t>"למה אני כל כך מדוכאת?"</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1718.684807256236</v>
+        <v>2404.013605442177</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>recordNum4_sentence103_d9_7_h16_21_23.wav</t>
+          <t>recordNum23_sentence35_d9_7_h16_22_57.wav</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2586,41 +2592,41 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.3960013389587402</v>
+        <v>6.098345518112183</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>"אני צריכה לשלוח הודעה."</t>
+          <t>"אני חושבת שאני מכוערת."</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>2569.319727891156</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>recordNum12_sentence99_d9_7_h16_22_0.wav</t>
+          <t>recordNum21_sentence120_d9_7_h16_22_44.wav</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -2670,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -2678,37 +2684,37 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.2570047378540039</v>
+        <v>0.4292829036712646</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני כל כך חלשה."</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>2230.680272108843</v>
+        <v>3414.671201814059</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>recordNum6_sentence85_d9_7_h16_21_33.wav</t>
+          <t>recordNum24_sentence123_d9_7_h16_23_3.wav</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -2762,41 +2768,41 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.2531940937042236</v>
+        <v>0.4937491416931152</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות קניות."</t>
+          <t>"אני שונאת את עצמי."</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2235.986394557823</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
+          <t>recordNum32_sentence15_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2854,7 +2860,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.2712447643280029</v>
+        <v>0.2343699932098389</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2867,15 +2873,15 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1713.333333333333</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>recordNum10_sentence109_d9_7_h16_21_51.wav</t>
+          <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2884,7 +2890,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -2934,15 +2940,15 @@
         <v>1</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.2652640342712402</v>
+        <v>0.5235528945922852</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2951,19 +2957,19 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>"הערב אני בבית."</t>
+          <t>"אני רוצה לצאת לאימון."</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>2225.351473922903</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>recordNum19_sentence118_d9_7_h16_22_33.wav</t>
+          <t>recordNum9_sentence81_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -2972,7 +2978,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3022,36 +3028,36 @@
         <v>1</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.2244267463684082</v>
+        <v>0.6846468448638916</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>"למה אני אף פעם לא מצליחה?"</t>
+          <t>"אני צריכה לשלוח הודעה."</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>2566.666666666667</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>recordNum38_sentence2_d9_7_h16_24_19.wav</t>
+          <t>recordNum9_sentence108_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3060,7 +3066,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3110,36 +3116,36 @@
         <v>1</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.250807523727417</v>
+        <v>1.123994827270508</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי מישהו אחר."</t>
+          <t>"איפה שמתי את המפתחות?"</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>2062.65306122449</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
+          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
         </is>
       </c>
       <c r="O32" t="n">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3148,7 +3154,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3190,7 +3196,7 @@
         </is>
       </c>
       <c r="F33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3200,37 +3206,37 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1.10053563117981</v>
+        <v>4.826838970184326</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי מישהו אחר."</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>2062.65306122449</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
+          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O33" t="n">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -3288,28 +3294,28 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.3281219005584717</v>
+        <v>0.5889139175415039</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>"משהו לא בסדר איתי."</t>
+          <t>"אני צריכה לבדוק את המייל."</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>2577.34693877551</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
+          <t>recordNum16_sentence100_d9_7_h16_22_17.wav</t>
         </is>
       </c>
       <c r="O34" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3318,7 +3324,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -3368,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -3376,7 +3382,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.4472415447235107</v>
+        <v>1.186015844345093</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3385,28 +3391,28 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"אני מבינה עברית."</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>3772.018140589569</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>recordNum1_sentence119_d9_7_h16_21_8.wav</t>
+          <t>recordNum6_sentence105_d9_7_h16_21_33.wav</t>
         </is>
       </c>
       <c r="O35" t="n">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3460,41 +3466,41 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.2423560619354248</v>
+        <v>0.4927124977111816</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>"אני פסיבית וחסרת מוטיבציה."</t>
+          <t>"אני רוצה לקרוא ספר."</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>2052.018140589569</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>recordNum37_sentence136_d9_7_h16_24_13.wav</t>
+          <t>recordNum10_sentence76_d9_7_h16_21_51.wav</t>
         </is>
       </c>
       <c r="O36" t="n">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -3544,36 +3550,36 @@
         <v>1</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.2699394226074219</v>
+        <v>0.4246993064880371</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי יכולה להיעלם."</t>
+          <t>"אני צריכה לבדוק את המייל."</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2393.333333333334</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
+          <t>recordNum16_sentence100_d9_7_h16_22_17.wav</t>
         </is>
       </c>
       <c r="O37" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3582,7 +3588,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3632,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -3640,37 +3646,37 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0.2628152370452881</v>
+        <v>0.2607989311218262</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>"מה בא לי לאכול?"</t>
+          <t>"אני כל כך חלשה."</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1889.319727891156</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
+          <t>recordNum37_sentence6_d9_7_h16_24_13.wav</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -3724,11 +3730,11 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.2469415664672852</v>
+        <v>0.3627452850341797</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3737,28 +3743,28 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>"אני חסרת משמעות."</t>
+          <t>"משהו לא בסדר איתי."</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>2062.65306122449</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
+          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3808,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -3816,37 +3822,37 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1.088629007339478</v>
+        <v>0.6668186187744141</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>"אני אף פעם לא אצליח."</t>
+          <t>"אני רוצה לקרוא ספר."</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>2734.671201814059</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>recordNum33_sentence132_d9_7_h16_23_51.wav</t>
+          <t>recordNum11_sentence110_d9_7_h16_21_54.wav</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -3896,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -3904,37 +3910,37 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0.3500630855560303</v>
+        <v>0.3931026458740234</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות קניות."</t>
+          <t>"שום דבר לא מרגיש לי טוב."</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>2235.986394557823</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
+          <t>recordNum26_sentence125_d9_7_h16_23_12.wav</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -3988,11 +3994,11 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2.40816855430603</v>
+        <v>0.4520285129547119</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4001,28 +4007,28 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>"העתיד שלי חסר תקווה."</t>
+          <t>"אני חסרת ערך."</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>2406.666666666667</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>recordNum21_sentence48_d9_7_h16_22_44.wav</t>
+          <t>recordNum30_sentence129_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -4072,36 +4078,36 @@
         <v>1</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.3102161884307861</v>
+        <v>0.3370673656463623</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>"אני כל כך חלשה."</t>
+          <t>"אני רוצה להסתפר."</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>3414.671201814059</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>recordNum24_sentence123_d9_7_h16_23_3.wav</t>
+          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4110,7 +4116,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4160,36 +4166,36 @@
         <v>1</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0.3186726570129395</v>
+        <v>0.3970260620117188</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>"קשה לי להתרכז."</t>
+          <t>"אני צריכה לשלוח הודעה."</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>3257.34693877551</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>recordNum36_sentence135_d9_7_h16_24_9.wav</t>
+          <t>recordNum9_sentence108_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -4198,7 +4204,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -4236,27 +4242,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.2837960720062256</v>
+        <v>1.968013525009155</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4265,28 +4269,24 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>"העתיד שלי בזבל."</t>
+          <t>"למה אני כל כך מדוכאת?"</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>2052.018140589569</v>
+        <v>2404.013605442177</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>recordNum26_sentence26_d9_7_h16_23_12.wav</t>
+          <t>recordNum23_sentence35_d9_7_h16_22_57.wav</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>26</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4336,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0.2733862400054932</v>
+        <v>0.5195639133453369</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4353,28 +4353,28 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>2230.680272108843</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>recordNum6_sentence85_d9_7_h16_21_33.wav</t>
+          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O46" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4432,37 +4432,37 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0.391951322555542</v>
+        <v>0.3000528812408447</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>"מה אני אלבש היום?"</t>
+          <t>"אני מאוכזבת מהבחירות שלי."</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1718.684807256236</v>
+        <v>2220</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>recordNum4_sentence103_d9_7_h16_21_23.wav</t>
+          <t>recordNum25_sentence124_d9_7_h16_23_7.wav</t>
         </is>
       </c>
       <c r="O47" t="n">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4520,37 +4520,37 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.2860379219055176</v>
+        <v>0.4157648086547852</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>"אני שונאת את עצמי."</t>
+          <t>"אני רוצה לצאת לאימון."</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>3252.018140589569</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>recordNum29_sentence128_d9_7_h16_23_30.wav</t>
+          <t>recordNum9_sentence81_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -4600,36 +4600,36 @@
         <v>1</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.4538412094116211</v>
+        <v>0.5115401744842529</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"הלוואי שהייתי מישהו אחר."</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1708.004535147392</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
+          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>0.2937231063842773</v>
+        <v>0.5260188579559326</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -4705,19 +4705,19 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>"אני חסרת ערך."</t>
+          <t>"הלוואי שהייתי יכולה להיעלם."</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>2238.684807256236</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>recordNum31_sentence16_d9_7_h16_23_41.wav</t>
+          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -4784,28 +4784,28 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>0.02692556381225586</v>
+        <v>0.3740458488464355</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>"למה אני אף פעם לא מצליחה?"</t>
+          <t>"מה אני אלבש היום?"</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2566.666666666667</v>
+        <v>1718.684807256236</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>recordNum38_sentence2_d9_7_h16_24_19.wav</t>
+          <t>recordNum4_sentence103_d9_7_h16_21_23.wav</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -4868,11 +4868,11 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.2453467845916748</v>
+        <v>0.4630074501037598</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>"הערב אני בבית."</t>
+          <t>"איפה שמתי את המפתחות?"</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -4889,20 +4889,20 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>recordNum19_sentence118_d9_7_h16_22_33.wav</t>
+          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -4960,37 +4960,37 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>0.313162088394165</v>
+        <v>0.4113070964813232</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי מישהו אחר."</t>
+          <t>"אני רוצה לקרוא ספר."</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2062.65306122449</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
+          <t>recordNum10_sentence76_d9_7_h16_21_51.wav</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -5040,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5048,37 +5048,37 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>0.2410945892333984</v>
+        <v>0.3690185546875</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"אני חסרת משמעות."</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>2393.333333333334</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>recordNum18_sentence117_d9_7_h16_22_27.wav</t>
+          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -5136,37 +5136,37 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0.1705446243286133</v>
+        <v>0.3895819187164307</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>"משהו לא בסדר איתי."</t>
+          <t>"אני מבינה עברית."</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>2577.34693877551</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
+          <t>recordNum6_sentence105_d9_7_h16_21_33.wav</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -5204,25 +5204,27 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>1.233184337615967</v>
+        <v>0.3702855110168457</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5231,24 +5233,28 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>"משהו לא בסדר איתי."</t>
+          <t>"נמאס לי לחשוב על זה."</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>2577.34693877551</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
+          <t>recordNum39_sentence138_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>133</v>
-      </c>
-      <c r="P56" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -5298,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -5306,37 +5312,37 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>0.3087708950042725</v>
+        <v>0.4295144081115723</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"למה אני כל כך מדוכאת?"</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1713.333333333333</v>
+        <v>2404.013605442177</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>recordNum10_sentence109_d9_7_h16_21_51.wav</t>
+          <t>recordNum23_sentence35_d9_7_h16_22_57.wav</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -5390,41 +5396,41 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.2319514751434326</v>
+        <v>0.4318537712097168</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>"אני פסיבית וחסרת מוטיבציה."</t>
+          <t>"מה אני אלבש היום?"</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>2052.018140589569</v>
+        <v>1715.986394557823</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>recordNum37_sentence136_d9_7_h16_24_13.wav</t>
+          <t>recordNum17_sentence92_d9_7_h16_22_22.wav</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5482,7 +5488,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>0.5608410835266113</v>
+        <v>0.3998899459838867</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5491,19 +5497,19 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>"איפה שמתי את המפתחות?"</t>
+          <t>"אני נושמת."</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>2225.351473922903</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
+          <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
         </is>
       </c>
       <c r="O59" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -5512,7 +5518,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -5550,13 +5556,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5566,41 +5570,37 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.3914501667022705</v>
+        <v>1.626466751098633</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>"אני רוצה לקרוא ספר."</t>
+          <t>"אני חסרת משמעות."</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1555.986394557823</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>recordNum11_sentence110_d9_7_h16_21_54.wav</t>
+          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O60" t="n">
-        <v>110</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -5650,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>0.2387855052947998</v>
+        <v>0.4055361747741699</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -5667,28 +5667,28 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי יכולה להיעלם."</t>
+          <t>"אני חושבת שאני מכוערת."</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>2393.333333333334</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
+          <t>recordNum21_sentence120_d9_7_h16_22_44.wav</t>
         </is>
       </c>
       <c r="O61" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -5738,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0.2373979091644287</v>
+        <v>0.5157546997070312</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -5755,28 +5755,28 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>"אני חסרת משמעות."</t>
+          <t>"אני כל כך חלשה."</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>2062.65306122449</v>
+        <v>3414.671201814059</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
+          <t>recordNum24_sentence123_d9_7_h16_23_3.wav</t>
         </is>
       </c>
       <c r="O62" t="n">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.595583438873291</v>
+        <v>0.4013516902923584</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -5843,28 +5843,28 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>"אני אף פעם לא אצליח."</t>
+          <t>"אני שונאת את עצמי."</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>2734.671201814059</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>recordNum33_sentence132_d9_7_h16_23_51.wav</t>
+          <t>recordNum32_sentence15_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O63" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -5922,28 +5922,28 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1.253653764724731</v>
+        <v>0.390937328338623</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>"העתיד שלי חסר תקווה."</t>
+          <t>"מה יש לי לעשות היום?"</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>2406.666666666667</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>recordNum21_sentence48_d9_7_h16_22_44.wav</t>
+          <t>recordNum13_sentence112_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O64" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.2503314018249512</v>
+        <v>0.371577262878418</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6023,15 +6023,15 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>3414.671201814059</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>recordNum24_sentence123_d9_7_h16_23_3.wav</t>
+          <t>recordNum37_sentence6_d9_7_h16_24_13.wav</t>
         </is>
       </c>
       <c r="O65" t="n">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -6098,37 +6098,37 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>0.2394554615020752</v>
+        <v>0.471142053604126</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>"אני צריכה לשלוח הודעה."</t>
+          <t>"משהו לא בסדר איתי."</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>2569.319727891156</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>recordNum12_sentence99_d9_7_h16_22_0.wav</t>
+          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -6178,36 +6178,36 @@
         <v>1</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>74.53873562812805</v>
+        <v>0.3881666660308838</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"שום דבר לא מרגיש לי טוב."</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>3772.018140589569</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>recordNum1_sentence119_d9_7_h16_21_8.wav</t>
+          <t>recordNum26_sentence125_d9_7_h16_23_12.wav</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -6266,36 +6266,36 @@
         <v>1</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0.277083158493042</v>
+        <v>0.3675224781036377</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>"קשה לי להתרכז."</t>
+          <t>"מה אני אלבש היום?"</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>3257.34693877551</v>
+        <v>1715.986394557823</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>recordNum36_sentence135_d9_7_h16_24_9.wav</t>
+          <t>recordNum17_sentence92_d9_7_h16_22_22.wav</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -6342,11 +6342,13 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -6360,7 +6362,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1.139457225799561</v>
+        <v>0.4243695735931396</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6369,24 +6371,28 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>"קשה לי להתרכז."</t>
+          <t>"אני חסרת ערך."</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>3257.34693877551</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>recordNum36_sentence135_d9_7_h16_24_9.wav</t>
+          <t>recordNum30_sentence129_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O69" t="n">
-        <v>135</v>
-      </c>
-      <c r="P69" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -6440,41 +6446,41 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1.189628601074219</v>
+        <v>0.4230225086212158</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"אני מאוכזבת מהבחירות שלי."</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>3772.018140589569</v>
+        <v>2220</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>recordNum1_sentence69_d9_7_h16_21_8.wav</t>
+          <t>recordNum25_sentence124_d9_7_h16_23_7.wav</t>
         </is>
       </c>
       <c r="O70" t="n">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -6532,7 +6538,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>0.2991995811462402</v>
+        <v>0.5570089817047119</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6541,19 +6547,19 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"אני מבינה עברית."</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>2393.333333333334</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>recordNum18_sentence117_d9_7_h16_22_27.wav</t>
+          <t>recordNum6_sentence105_d9_7_h16_21_33.wav</t>
         </is>
       </c>
       <c r="O71" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -6562,7 +6568,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -6600,57 +6606,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>0.267287015914917</v>
+        <v>1.679835081100464</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>"מה בא לי לאכול?"</t>
+          <t>"אני שונאת את עצמי."</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1889.319727891156</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
+          <t>recordNum32_sentence15_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O72" t="n">
-        <v>93</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -6688,11 +6688,13 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F73" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -6702,37 +6704,41 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>6.404195547103882</v>
+        <v>0.5323584079742432</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי מישהו אחר."</t>
+          <t>"אני רוצה לצאת לאימון."</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>2062.65306122449</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
+          <t>recordNum9_sentence81_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O73" t="n">
-        <v>131</v>
-      </c>
-      <c r="P73" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -6782,36 +6788,36 @@
         <v>1</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>37.6198091506958</v>
+        <v>0.4714579582214355</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>"אני רוצה לקרוא ספר."</t>
+          <t>"הלוואי שהייתי מישהו אחר."</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1555.986394557823</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>recordNum11_sentence110_d9_7_h16_21_54.wav</t>
+          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O74" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -6820,7 +6826,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -6858,13 +6864,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -6878,7 +6882,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>0.2834951877593994</v>
+        <v>2.013787031173706</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -6887,28 +6891,24 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>"העתיד שלי בזבל."</t>
+          <t>"הלוואי שהייתי מישהו אחר."</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>2052.018140589569</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>recordNum26_sentence26_d9_7_h16_23_12.wav</t>
+          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O75" t="n">
-        <v>26</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -6946,17 +6946,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F76" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -6964,7 +6966,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>12.6113555431366</v>
+        <v>0.5425970554351807</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -6973,24 +6975,28 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>"אני צריכה לבדוק את המייל."</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>2235.986394557823</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>recordNum5_sentence104_d9_7_h16_21_28.wav</t>
+          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O76" t="n">
-        <v>104</v>
-      </c>
-      <c r="P76" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -7048,7 +7054,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0.3291342258453369</v>
+        <v>0.5697460174560547</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7057,19 +7063,19 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>"אני שונאת את עצמי."</t>
+          <t>"הלוואי שהייתי יכולה להיעלם."</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>3252.018140589569</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>recordNum29_sentence128_d9_7_h16_23_30.wav</t>
+          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O77" t="n">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7078,7 +7084,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -7132,41 +7138,41 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>0.2682828903198242</v>
+        <v>0.7220523357391357</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>"אני חסרת ערך."</t>
+          <t>"אני נושמת."</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>2238.684807256236</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>recordNum31_sentence16_d9_7_h16_23_41.wav</t>
+          <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
         </is>
       </c>
       <c r="O78" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -7216,36 +7222,36 @@
         <v>1</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>0.2962093353271484</v>
+        <v>0.3796787261962891</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"אני חסרת משמעות."</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1713.333333333333</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>recordNum10_sentence109_d9_7_h16_21_51.wav</t>
+          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O79" t="n">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -7254,7 +7260,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -7304,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -7312,7 +7318,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.2293972969055176</v>
+        <v>0.4936802387237549</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7321,28 +7327,28 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>"איפה שמתי את המפתחות?"</t>
+          <t>"מה אני אלבש היום?"</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>2225.351473922903</v>
+        <v>1718.684807256236</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
+          <t>recordNum4_sentence103_d9_7_h16_21_23.wav</t>
         </is>
       </c>
       <c r="O80" t="n">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -7392,15 +7398,15 @@
         <v>1</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>0.2688181400299072</v>
+        <v>0.6098771095275879</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7409,19 +7415,19 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>"למה אני אף פעם לא מצליחה?"</t>
+          <t>"נמאס לי לחשוב על זה."</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>2566.666666666667</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>recordNum38_sentence2_d9_7_h16_24_19.wav</t>
+          <t>recordNum39_sentence138_d9_7_h16_24_23.wav</t>
         </is>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -7430,7 +7436,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -7480,15 +7486,15 @@
         <v>1</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>0.2792541980743408</v>
+        <v>0.5375072956085205</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7497,19 +7503,19 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>"מה אני אלבש היום?"</t>
+          <t>"אני רוצה לקרוא ספר."</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1718.684807256236</v>
+        <v>1713.333333333333</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>recordNum4_sentence103_d9_7_h16_21_23.wav</t>
+          <t>recordNum10_sentence76_d9_7_h16_21_51.wav</t>
         </is>
       </c>
       <c r="O82" t="n">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -7518,7 +7524,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -7568,15 +7574,15 @@
         <v>1</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>0.2762844562530518</v>
+        <v>0.5492153167724609</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -7585,19 +7591,19 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי מישהו אחר."</t>
+          <t>"למה אני כל כך מדוכאת?"</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>2062.65306122449</v>
+        <v>2404.013605442177</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>recordNum32_sentence131_d9_7_h16_23_45.wav</t>
+          <t>recordNum23_sentence35_d9_7_h16_22_57.wav</t>
         </is>
       </c>
       <c r="O83" t="n">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -7606,7 +7612,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -7644,27 +7650,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0.2383337020874023</v>
+        <v>2.139856576919556</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -7673,28 +7677,24 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות קניות."</t>
+          <t>"אני מבינה עברית."</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>2235.986394557823</v>
+        <v>2230.680272108843</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
+          <t>recordNum6_sentence105_d9_7_h16_21_33.wav</t>
         </is>
       </c>
       <c r="O84" t="n">
-        <v>90</v>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -7732,25 +7732,27 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F85" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1.490923881530762</v>
+        <v>0.4031319618225098</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7759,24 +7761,28 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"אני צריכה לשלוח הודעה."</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>2393.333333333334</v>
+        <v>1726.666666666667</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>recordNum18_sentence117_d9_7_h16_22_27.wav</t>
+          <t>recordNum9_sentence108_d9_7_h16_21_46.wav</t>
         </is>
       </c>
       <c r="O85" t="n">
-        <v>117</v>
-      </c>
-      <c r="P85" t="inlineStr"/>
+        <v>108</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -7826,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -7834,37 +7840,37 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>0.8078386783599854</v>
+        <v>43.3893837928772</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>"אני צריכה לשלוח הודעה."</t>
+          <t>"אני חושבת שאני מכוערת."</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>2569.319727891156</v>
+        <v>2406.666666666667</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>recordNum12_sentence99_d9_7_h16_22_0.wav</t>
+          <t>recordNum21_sentence120_d9_7_h16_22_44.wav</t>
         </is>
       </c>
       <c r="O86" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -7914,36 +7920,36 @@
         <v>1</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0.2323384284973145</v>
+        <v>0.5096018314361572</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>"משהו לא בסדר איתי."</t>
+          <t>"אני צריכה לבדוק את המייל."</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>2577.34693877551</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
+          <t>recordNum16_sentence100_d9_7_h16_22_17.wav</t>
         </is>
       </c>
       <c r="O87" t="n">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -7952,7 +7958,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -8010,7 +8016,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>0.2971706390380859</v>
+        <v>0.4154262542724609</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8019,19 +8025,19 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"איפה שמתי את המפתחות?"</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>3772.018140589569</v>
+        <v>2225.351473922903</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>recordNum1_sentence69_d9_7_h16_21_8.wav</t>
+          <t>recordNum19_sentence72_d9_7_h16_22_33.wav</t>
         </is>
       </c>
       <c r="O88" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8040,7 +8046,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -8090,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8098,37 +8104,37 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>0.320671558380127</v>
+        <v>0.3963651657104492</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>"הערב אני בבית."</t>
+          <t>"אני כל כך חלשה."</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>2225.351473922903</v>
+        <v>3414.671201814059</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>recordNum19_sentence118_d9_7_h16_22_33.wav</t>
+          <t>recordNum24_sentence123_d9_7_h16_23_3.wav</t>
         </is>
       </c>
       <c r="O89" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -8182,41 +8188,41 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0.2563157081604004</v>
+        <v>0.2419183254241943</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני שונאת את עצמי."</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1708.004535147392</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
+          <t>recordNum32_sentence15_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O90" t="n">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>odd</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -8254,19 +8260,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8274,7 +8278,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0.2373912334442139</v>
+        <v>4.593224763870239</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8283,28 +8287,24 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>"אני פסיבית וחסרת מוטיבציה."</t>
+          <t>"אני שונאת את עצמי."</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>2052.018140589569</v>
+        <v>2062.65306122449</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>recordNum37_sentence136_d9_7_h16_24_13.wav</t>
+          <t>recordNum32_sentence15_d9_7_h16_23_45.wav</t>
         </is>
       </c>
       <c r="O91" t="n">
-        <v>136</v>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -8354,15 +8354,15 @@
         <v>1</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>0.2263927459716797</v>
+        <v>0.5932011604309082</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8371,19 +8371,19 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי יכולה להיעלם."</t>
+          <t>"אני כל כך חלשה."</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>2393.333333333334</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
+          <t>recordNum37_sentence6_d9_7_h16_24_13.wav</t>
         </is>
       </c>
       <c r="O92" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -8430,11 +8430,13 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F93" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -8448,33 +8450,37 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>1.230764627456665</v>
+        <v>0.5180966854095459</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>ntr</t>
+          <t>neg</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"משהו לא בסדר איתי."</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1713.333333333333</v>
+        <v>2577.34693877551</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>recordNum10_sentence109_d9_7_h16_21_51.wav</t>
+          <t>recordNum34_sentence133_d9_7_h16_23_56.wav</t>
         </is>
       </c>
       <c r="O93" t="n">
-        <v>109</v>
-      </c>
-      <c r="P93" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -8524,15 +8530,15 @@
         <v>1</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>l</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0.3436157703399658</v>
+        <v>0.5867569446563721</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -8541,19 +8547,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"מה יש לי לעשות היום?"</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>3772.018140589569</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>recordNum1_sentence119_d9_7_h16_21_8.wav</t>
+          <t>recordNum13_sentence112_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O94" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -8562,7 +8568,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -8616,41 +8622,41 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>0.2992005348205566</v>
+        <v>0.4533500671386719</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>"אני חסרת משמעות."</t>
+          <t>"אני רוצה להסתפר."</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>2062.65306122449</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>recordNum39_sentence66_d9_7_h16_24_23.wav</t>
+          <t>recordNum15_sentence114_d9_7_h16_22_13.wav</t>
         </is>
       </c>
       <c r="O95" t="n">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -8700,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -8708,7 +8714,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>0.2461233139038086</v>
+        <v>0.4880144596099854</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -8717,28 +8723,28 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>"אני אף פעם לא אצליח."</t>
+          <t>"שום דבר לא מרגיש לי טוב."</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>2734.671201814059</v>
+        <v>2052.018140589569</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>recordNum33_sentence132_d9_7_h16_23_51.wav</t>
+          <t>recordNum26_sentence125_d9_7_h16_23_12.wav</t>
         </is>
       </c>
       <c r="O96" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -8792,11 +8798,11 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>r</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>0.1356372833251953</v>
+        <v>0.3914446830749512</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -8805,28 +8811,28 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני רוצה לקרוא ספר."</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>2230.680272108843</v>
+        <v>1555.986394557823</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>recordNum6_sentence85_d9_7_h16_21_33.wav</t>
+          <t>recordNum11_sentence110_d9_7_h16_21_54.wav</t>
         </is>
       </c>
       <c r="O97" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
@@ -8884,7 +8890,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0.3774991035461426</v>
+        <v>0.4113636016845703</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -8893,19 +8899,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>"העתיד שלי חסר תקווה."</t>
+          <t>"הלוואי שהייתי יכולה להיעלם."</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>2406.666666666667</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>recordNum21_sentence48_d9_7_h16_22_44.wav</t>
+          <t>recordNum30_sentence17_d9_7_h16_23_36.wav</t>
         </is>
       </c>
       <c r="O98" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -8914,7 +8920,7 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
@@ -8952,13 +8958,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -8972,7 +8976,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>0.2653234004974365</v>
+        <v>2.711990594863892</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -8995,14 +8999,10 @@
       <c r="O99" t="n">
         <v>17</v>
       </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
+      <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0.2509422302246094</v>
+        <v>0.7538561820983887</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9069,28 +9069,28 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות טלפון."</t>
+          <t>"מה יש לי לעשות היום?"</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>2393.333333333334</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>recordNum18_sentence117_d9_7_h16_22_27.wav</t>
+          <t>recordNum13_sentence112_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O100" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>odd</t>
+          <t>even</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
